--- a/ListagemDeUsuariosDoBlog.xlsx
+++ b/ListagemDeUsuariosDoBlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -22,13 +22,28 @@
     <t>Permissão do Usúario</t>
   </si>
   <si>
+    <t>Teste ddddd</t>
+  </si>
+  <si>
+    <t>contato@builderseunegocioonline.com.br</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>gabriel.bastiani@sumig.com</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
     <t>Gabriel Campos de Bastiani</t>
   </si>
   <si>
     <t>gabriel.bastiani@hotmail.com.br</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -102,6 +117,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ListagemDeUsuariosDoBlog.xlsx
+++ b/ListagemDeUsuariosDoBlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -22,28 +22,13 @@
     <t>Permissão do Usúario</t>
   </si>
   <si>
-    <t>Teste ddddd</t>
-  </si>
-  <si>
-    <t>contato@builderseunegocioonline.com.br</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>gabriel.bastiani@sumig.com</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
     <t>Gabriel Campos de Bastiani</t>
   </si>
   <si>
     <t>gabriel.bastiani@hotmail.com.br</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
   </si>
 </sst>
 </file>
@@ -89,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -117,28 +102,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
